--- a/output/0/tRNA-Lys-TTT-4-1.xlsx
+++ b/output/0/tRNA-Lys-TTT-4-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>chr6</t>
   </si>
@@ -111,36 +111,6 @@
   </si>
   <si>
     <t>64</t>
-  </si>
-  <si>
-    <t>27559756</t>
-  </si>
-  <si>
-    <t>27559779</t>
-  </si>
-  <si>
-    <t>27559759</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>CGGCTGCAGTGCTGAGGCAC</t>
-  </si>
-  <si>
-    <t>35% (45)</t>
-  </si>
-  <si>
-    <t>96% (78)</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 35%, Moreno-Mateos: 96%</t>
   </si>
 </sst>
 </file>
@@ -185,7 +155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -368,65 +338,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" t="s">
-        <v>42</v>
-      </c>
-      <c r="S4" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
